--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-registration.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-registration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,6 +319,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.extension:registeringOrganization</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:registeringOrganization.value[x]</t>
   </si>
   <si>
@@ -387,11 +387,13 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Liste des autorités d'enregistrement.</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J83-AutoriteEnregistrement-RASS/FHIR/JDV-J83-AutoriteEnregistrement-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -401,21 +403,6 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:registeringOrganization.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Liste des autorités d'enregistrement.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J83-AutoriteEnregistrement-RASS/FHIR/JDV-J83-AutoriteEnregistrement-RASS</t>
-  </si>
-  <si>
     <t>Extension.extension:registeringOrganizationDetail</t>
   </si>
   <si>
@@ -438,9 +425,6 @@
   </si>
   <si>
     <t>Extension.extension:registeringOrganizationDetail.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:registeringOrganizationDetail.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>Liste des départements (outre-mer et Monaco inclus).</t>
@@ -474,25 +458,19 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.id</t>
+    <t>Extension.extension:period.value[x].id</t>
   </si>
   <si>
     <t>Extension.extension.value[x].id</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.extension</t>
+    <t>Extension.extension:period.value[x].extension</t>
   </si>
   <si>
     <t>Extension.extension.value[x].extension</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.start</t>
+    <t>Extension.extension:period.value[x].start</t>
   </si>
   <si>
     <t>Extension.extension.value[x].start</t>
@@ -517,14 +495,14 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>./low</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.end</t>
+    <t>Extension.extension:period.value[x].end</t>
   </si>
   <si>
     <t>Extension.extension.value[x].end</t>
@@ -572,9 +550,6 @@
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
-    <t>Extension.extension:status.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
     <t>Liste des statuts de l'inscription.</t>
   </si>
   <si>
@@ -603,9 +578,6 @@
   </si>
   <si>
     <t>Extension.extension:hostingDepartment.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:hostingDepartment.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>Extension.extension:isFirst</t>
@@ -943,7 +915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -952,42 +924,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.94921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="105.4140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="105.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1407,24 +1379,24 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
@@ -1449,13 +1421,13 @@
         <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1514,7 +1486,7 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>98</v>
@@ -1525,10 +1497,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1628,10 +1600,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1660,7 +1632,7 @@
         <v>28</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1720,7 +1692,7 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>98</v>
@@ -1731,10 +1703,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1757,16 +1729,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1774,7 +1746,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1816,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -1831,7 +1803,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1895,29 +1867,31 @@
         <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1926,24 +1900,24 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
@@ -1965,15 +1939,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -1998,13 +1974,13 @@
         <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>74</v>
@@ -2022,22 +1998,22 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -2045,11 +2021,9 @@
         <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2070,17 +2044,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2129,30 +2101,30 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2163,7 +2135,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2175,13 +2147,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2220,42 +2192,42 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2263,10 +2235,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2278,22 +2250,24 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -2323,42 +2297,42 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2366,7 +2340,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
@@ -2381,24 +2355,22 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>74</v>
@@ -2416,13 +2388,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2440,32 +2412,34 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2486,13 +2460,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2531,44 +2505,44 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2589,13 +2563,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2622,13 +2596,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -2646,7 +2620,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2658,22 +2632,20 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>74</v>
       </c>
@@ -2682,7 +2654,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2697,10 +2669,10 @@
         <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2739,16 +2711,16 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>97</v>
@@ -2760,7 +2732,7 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
@@ -2771,10 +2743,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2782,7 +2754,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -2797,22 +2769,24 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -2854,10 +2828,10 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -2869,15 +2843,15 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2888,7 +2862,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -2900,13 +2874,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2945,42 +2919,42 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2988,7 +2962,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>82</v>
@@ -3003,24 +2977,22 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>74</v>
@@ -3062,10 +3034,10 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>82</v>
@@ -3077,26 +3049,26 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3108,15 +3080,17 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3153,44 +3127,44 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3208,18 +3182,20 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3268,7 +3244,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3277,21 +3253,21 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3311,23 +3287,27 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="R23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3371,7 +3351,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3380,32 +3360,34 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3420,13 +3402,13 @@
         <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3464,16 +3446,16 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>97</v>
@@ -3485,21 +3467,21 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3519,20 +3501,18 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -3581,7 +3561,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3590,21 +3570,21 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>164</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3615,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -3624,27 +3604,23 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q26" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3676,52 +3652,50 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>82</v>
@@ -3736,16 +3710,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3753,7 +3727,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>74</v>
@@ -3795,30 +3769,30 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3841,13 +3815,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3874,13 +3848,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -3898,7 +3872,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -3907,23 +3881,25 @@
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
@@ -3932,7 +3908,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -3947,12 +3923,14 @@
         <v>90</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -3989,16 +3967,16 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>97</v>
@@ -4010,7 +3988,7 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>98</v>
@@ -4021,10 +3999,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4032,7 +4010,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -4047,24 +4025,22 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>74</v>
@@ -4106,10 +4082,10 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -4121,15 +4097,15 @@
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4140,7 +4116,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4152,13 +4128,13 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4197,50 +4173,50 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>82</v>
@@ -4255,22 +4231,24 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4288,13 +4266,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -4312,10 +4290,10 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
@@ -4324,22 +4302,20 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
@@ -4360,17 +4336,15 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -4395,13 +4369,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -4419,32 +4393,34 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4465,15 +4441,17 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -4522,30 +4500,30 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4556,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -4568,13 +4546,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4613,42 +4591,42 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4656,10 +4634,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -4671,24 +4649,22 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>74</v>
@@ -4718,42 +4694,42 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4761,7 +4737,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>82</v>
@@ -4776,22 +4752,24 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>74</v>
@@ -4821,20 +4799,22 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
@@ -4843,22 +4823,20 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>74</v>
       </c>
@@ -4879,7 +4857,7 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>119</v>
@@ -4912,13 +4890,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -4936,7 +4914,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -4945,31 +4923,29 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>82</v>
@@ -4984,16 +4960,16 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5001,7 +4977,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>74</v>
@@ -5043,30 +5019,30 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5077,7 +5053,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -5089,13 +5065,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5146,7 +5122,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5155,532 +5131,13 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
